--- a/src/main/resources/data/Миссии.xlsx
+++ b/src/main/resources/data/Миссии.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="19140" windowHeight="8232"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="19140" windowHeight="8232" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Миссии" sheetId="1" r:id="rId1"/>
+    <sheet name="Начало" sheetId="2" r:id="rId2"/>
+    <sheet name="Конец" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Тундра</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Вам надо умаслить бабу ягу чтобы она дала вам серебряную нить</t>
+  </si>
+  <si>
+    <t>Сначала было слово</t>
+  </si>
+  <si>
+    <t>В конце было слово</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -435,7 +441,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -444,10 +456,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>